--- a/sheets/electronics.xlsx
+++ b/sheets/electronics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="air-fryers" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="phones" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="blenders" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="cameras" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="vacuum-cleaners" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -206,127 +207,32 @@
     <t xml:space="preserve">https://www.amazon.com/SOME-MI-AHA-BHA-PHA-Acne-fighting-Moisturizing/dp/B07FCG8T4L/ref=sr_1_33?keywords=epicuren+enzyme+toner&amp;qid=1672216174&amp;sr=8-33</t>
   </si>
   <si>
-    <t xml:space="preserve">CeraVe Moisturising Lotion | 236ml/8oz | Daily Face &amp; Body Moisturiser for Dry To Very Dry Skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/51jiHwPCY8L._AC_SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.eg/-/en/CeraVe-Moisturising-Lotion-236ml-Moisturiser/dp/B098TX3CKK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aveeno Baby Daily Care Moisturising Lotion 150ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aveeno Baby Daily Care Moisturising Lotion protects your baby’s skin from dryness, and will leave your baby’s skin feeling soft, smooth and healthy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.travelpharm.com/images/aveeno-baby-daily-care-moisturising-lotion-150ml-p14739-15576_image.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.travelpharm.com/medicines-c143/baby-child-c1807/aveeno-baby-daily-care-moisturising-lotion-150ml-p14739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bioderma Photoderm Fluide Cellular Bioprotection 40ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIODERMA creates Photoderm with a full range of sun products for all types of skin and sensitivity to the sun. Cellular Bioprotection™ patent, real internal biological protection, preserves and stimulates the skin's natural defences against the sun's harmful effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gphb01pdazurefileshare.blob.core.windows.net/sys-master-hybris-media/h1a/hb6/16532202586142/984781-bioderma-photoderm-max-fluid-spf100-40ml-1-800Wx800H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mannings.com.hk/bioderma-photoderm-max-fluid-spf100-40ml/p/984781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keri Whole Body Therapy Original, Continuous Moisturization, 3 Essential Moisturizers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/618KXCZCBSL._AC_SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Keri-Original-Body-Lotion-Ounces/dp/B00135JEYY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palmers Cocoa Butter Formula Farming Butter 315ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palmer's Cocoa Butter Formula Firming Butter, a unique formula that is specifically designed to help visibly restore your body, especially after pregnancy or weight loss. The unique combination of Cocoa Butter, Collagen, Elastin and Shea Butter firms and tones while helping to visibly improve skin's texture.  In addition, Ginseng and Vitamin E help soften and relieve stressed skin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.palmers.com/835-thickbox_default/firming-butter.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.palmers.com/cocoa-butter-formula-products/27-firming-butter.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palmers Cocoa Butter Formula Massage Lotion Stretch Marks - 250ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stretch Mark Lotion: This non-greasy deep moisturizing body lotion is ideal for all-over body use to improve skin elasticity texture and tone and is widely recommended for stretch marks during and after pregnancy or weight fluctuation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/71f5OxKaobL._SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Palmers-Formula-Massage-Stretch-Pregnancy/dp/B0010ED5FC?th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palmers Cocoa Butter Dry Skin Therapy Softens Smoothes – 400ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palmer's Cocoa Butter Formula with Vitamin E, 13.5 Oz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/71Paaik7UyL._SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Palmers-Cocoa-Butter-Formula-Vitamin/dp/B00J51Q7H0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vasceline Daily Brightening Even Tone Lotion – 725ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Having healthy, glowing skin is a vital part of your overall health. Vaseline® believes that truly healthy skin starts with deep healing moisture. It’s not something you get by masking problems or through quick fixes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static-01.shop.com.mm/p/759dd339af5ac3c07c0d59ea2c86fc31.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.shop.com.mm/products/vaseline-healthy-bright-daily-brightening-even-tone-lotion-600ml-i109416842.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bath and Body Works Aromatherapy Cedarwood Vanilla Sleep Moisturizing Body Lotion 6.5 Ounce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/61Fipw+7kwL._SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Bath-Body-Works-Aromatherapy-Moisturizing/dp/B09TGJ31YZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Body Shop British Rose Body Yogurt, 48hr Moisturizer, 100% Vegan, 6.91 Fl.Oz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Life's too short for waiting jump straight into your jeans with our British rose body yogurt. The new, lightweight formula absorbs instantly and provides upto 48 hours of moisture. Apply to damp skin straight after showering for skin that feels smoother and never sticky, smelling like a bouquet of roses 100 % vegan. Enriched with rose extract from England and community trade organic almond milk from Spain </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/51FKe4XQxkL._SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Body-Shop-British-Yogurt-Moisturizer/dp/B07BKFY281?tag=t98281-rosebeauty-20&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Body Shop Vegan Body Yogurt Strawberry, 200 Ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingrdients include: Oil; Strawberry Seed Oil &amp; Juice Extract; Community Fair Trade Organic Almond Milk And Oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/W/WEBP_402378-T2/images/I/61Wb3jD198L._SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.in/Body-Shop-Strawberry-Yogurt-Moisturizer/dp/B07BKFY27Z</t>
+    <t xml:space="preserve">NutriBullet Blender Combo 1000 Black (No Box)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take your nutrition extraction to the next level with the power, precision and versatility of the NutriBullet Blender Combo. Effortlessly switch between single-serving cups and a large-capacity pitcher. Equipped with multiple speeds, a pulse function and extraction capabilities for endlessly delicious possibilities. Can also do hot liquids.
+Step up your blending game with the power and precision of the NutriBullet BlenderCombo 1000. With multiple speeds, a pulse function, extraction capabilities and a vented lid to accommodate hot ingredients, this full-sized unit gives you more capacity, more power, and more versatility to blend and extract even more of your favorite creations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.shopandship.co.za/images/virtuemart/product/Nutribullet%20Blender%20Combo%201.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.takealot.com/nutribullet-blender-combo-1000-black/PLID70297595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Magic Bullet 400 Watts, 10 Piece Set, Mini Food Processor, Personal Blender, Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Magic Bullet Kitchen Express Is The All-In-One Device Designed To Save You Time In The Kitchen - Chop, Mix, Slice, S
+High-Torque 400-Watt Motor Base With Compatible Work Bowl And Cup Attachments Allows You To Switch From Mini Food Processor To Personal Blender In Seconds.
+With Our Included Recipe Guide, You Can Get Started Making Quick, Easy, And Delicious Dishes - From Appetizers To Dessert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71YlwYWW2UL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/Magic-Bullet-Processor-Personal-Warranty/dp/B08S7JJDG7</t>
   </si>
   <si>
     <t xml:space="preserve">Quick Release Battery Pack</t>
@@ -362,6 +268,71 @@
   </si>
   <si>
     <t xml:space="preserve">https://cdn.shopify.com/s/files/1/2393/8647/products/flc_plus_black_hero_1500x1500_9dad5ef6-4e73-48dd-a141-7d943266cbd8.jpg?v=1621437116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenwood 0.5 Litre Dust Capacity Wet And Dry Handheld Vacuum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71086ZFrT6L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71dfnD54GPL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.sa/-/en/Kenwood-Capacity-Handheld-Owhvp19-000Si-warranty/dp/B08N1D2HYG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Black+Decker 3.6V 1.5Ah Li-Ion Cordless Wet &amp; Dry Dustbuster Handheld Vacuum , White/Blue - WDC115WA-B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71F5goFVaBL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/Black-Decker-Cordless-Dustbuster-Handheld/dp/B087QT1Q6D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8V Lithium-ion Dustbuster Cordless Hand Vacuum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messes won't slow you down with this BLACK+DECKER DUSTBUSTER hand vacuum. Strong suction and long battery life, thanks to Lithium Ion battery technology, make this the perfect vacuum to reach for when spills and dirty footprints happen. An easy empty dustbin lets you empty it without getting your hands dirty. It comes with a pull-out crevice tool, flip-up brush for dusting and upholstery, and a wall mount for convenient storage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.blackanddecker.com.au/EMEA/PRODUCT/IMAGES/HIRES/DVJ320J-XE/DVJ320J_1.jpg?resize=530x530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.blackanddecker.com.au/EMEA/PRODUCT/IMAGES/HIRES/DVJ320J-XE/DVJ320J_3.jpg?resize=530x530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.blackanddecker.com/products/hlva320j00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATTERY-POWERED HAND VACUUM CLEANER VCH 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small, lightweight, compact and yet very powerful, our battery powered hand-held vacuum cleaner VCH 2 cuts a good figure during everyday vacuum cleaning. Crumbs, dust or hair on furniture and floors or in cars don't stand a chance, as the small powerhouse is always ready to quickly take care of the problem. Its two-step filter system is not just extremely powerful, but just like the dust container can be washed under running water. It comprises a fine steel mesh, which catches coarse particles and hair, and a downstream HEPA 12 filter to retain types of dust up to one tenth of a micrometre in size. In this way, rooms are not only cleaned but the air stays fresh and allergy sufferers can take a deep breath.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://s1.kaercher-media.com/products/11984000/main/1/d0.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kaercher.com/my/home-garden/vacuum-cleaners/handheld-vacuum-cleaners/vch-2-11984000.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gator 10.8v Cordless Handheld Vacuum Cleaner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+0.3L capacity, 1.3 Kg. Handheld vacuum cleaner perfect for life's little spills or cleaning your car, Cordless for ease of use, Flip-open mouth for easy emptying straight into the bin or a rubbish bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luluhypermarket.com/cdn-cgi/image/f=auto/medias/1129666-01.jpg-1200Wx1200H?context=bWFzdGVyfGltYWdlc3w4MDAxNXxpbWFnZS9qcGVnfGhiOC9oYjMvMTI1MzYxMzIyMDY2MjIvMTEyOTY2Ni0wMS5qcGdfMTIwMFd4MTIwMEh8NDJiYzQ1ZjI4ZDQ5ZTUwZmRhMmJmZDk0NDViNGM0NTFkNGM2YTUxYzQyMDhlZDRlM2RkOWZkZTMxZjY3MGMyOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luluhypermarket.com/cdn-cgi/image/f=auto/medias/1129666-02.jpg-1200Wx1200H?context=bWFzdGVyfGltYWdlc3w4NjA3NHxpbWFnZS9qcGVnfGhkZS9oZGUvMTI1MzYxMzMzMjA3MzQvMTEyOTY2Ni0wMi5qcGdfMTIwMFd4MTIwMEh8NmQ1ZjU2YmRjYmE4MjdjYTAxODVhNGVmZWJkOTIyZjQxNmU1NzE5N2JlNjdjNDA4M2ZhNjY5YTUxNjA0YjNhYg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luluhypermarket.com/en-qa/hoover-gator-cordless-handheld-vacuum-cleaner-hq86-gabm/p/1129666</t>
   </si>
 </sst>
 </file>
@@ -376,6 +347,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -397,6 +369,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -473,11 +446,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
@@ -573,11 +546,11 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -696,11 +669,11 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -831,13 +804,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -862,179 +835,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="D2" s="0" t="n">
-        <v>240000</v>
+        <v>900000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3404</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>450000</v>
+      </c>
       <c r="E3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>250000</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>200000</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>90000</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>90000</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>90000</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>150000</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>120000</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>150000</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>150000</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1055,8 +890,100 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1085,48 +1012,103 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3394</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>101</v>
+        <v>78</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3396</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1200000</v>
+        <v>600000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3384</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>108</v>
+        <v>85</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>600000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>109</v>
+        <v>86</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3386</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/electronics.xlsx
+++ b/sheets/electronics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="air-fryers" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,8 @@
     <sheet name="blenders" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="cameras" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="vacuum-cleaners" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="televisions" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="tablets" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -141,72 +143,6 @@
     <t xml:space="preserve">https://www.cleanandclear.co.uk/products/blackhead-clearing-cleanser</t>
   </si>
   <si>
-    <t xml:space="preserve">Sebamed Facial Cleanser For Oily and Combination skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebamed Facial Cleanser For Oily and Combination skin 5.07 fl.oz (150ml)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/51c1120pbYL._SL1136_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Sebamed-Facial-Cleanser-Combination-fl-oz/dp/B01KJRWABA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEBAMED FACE CLEANSING TONER 150ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.emcoop.ae/wp-content/uploads/2021/04/4103040143136.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.emcoop.ae/product/sebamed-face-cleansing-toner-150ml/#&amp;gid=1&amp;pid=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enzyme Pore Refining Tonner 100ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://i.ebayimg.com/images/g/LOIAAOSw-wtifYC9/s-l1600.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebay.com/itm/125311962851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin Beautifying Milk MAXI-TONE – 10OZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moisturize the skin with both oil and water while achieving an even toned glow by fading away skin discolorations such as age spots, freckles, or dark patches that may occur from pregnancy or the use of birth control pills. Gradually fades skin discolorations with a high-potency formula containing hydroquinone. Now in a larger 10oz. container preventing the need for constant repurchasing!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.clearessence.com/wp-content/uploads/2020/06/exclusive-skin-beautifying-milk-10-oz-3.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.clearessence.com/product/clear-essence-exclusive-skin-beautifying-milk-10-oz/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pixi Skintress Glow Tonic 100ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pixi Glow Tonic 100ml miracle working toner helps brighten the complexion resulting in a healthier glow.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/1463/5858/products/glowtonic-100ml-may19_3_f5565c8e-138d-44c7-880e-e73e6e5fc131_large.jpg?v=1664563642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.pixibeauty.com/products/glow-tonic-100ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOME BY MI AHA BHA PHA 30 Days Miracle Toner / 5.07Oz, 150ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rescue your skin with AHA BHA PHA 30days Miracle Toner ! The relief of your skin ! Irritaion-free exfoliator for every days use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/61t9pxnTwTL._AC_SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/SOME-MI-AHA-BHA-PHA-Acne-fighting-Moisturizing/dp/B07FCG8T4L/ref=sr_1_33?keywords=epicuren+enzyme+toner&amp;qid=1672216174&amp;sr=8-33</t>
-  </si>
-  <si>
     <t xml:space="preserve">NutriBullet Blender Combo 1000 Black (No Box)</t>
   </si>
   <si>
@@ -319,20 +255,95 @@
     <t xml:space="preserve">https://www.kaercher.com/my/home-garden/vacuum-cleaners/handheld-vacuum-cleaners/vch-2-11984000.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Gator 10.8v Cordless Handheld Vacuum Cleaner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-0.3L capacity, 1.3 Kg. Handheld vacuum cleaner perfect for life's little spills or cleaning your car, Cordless for ease of use, Flip-open mouth for easy emptying straight into the bin or a rubbish bag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.luluhypermarket.com/cdn-cgi/image/f=auto/medias/1129666-01.jpg-1200Wx1200H?context=bWFzdGVyfGltYWdlc3w4MDAxNXxpbWFnZS9qcGVnfGhiOC9oYjMvMTI1MzYxMzIyMDY2MjIvMTEyOTY2Ni0wMS5qcGdfMTIwMFd4MTIwMEh8NDJiYzQ1ZjI4ZDQ5ZTUwZmRhMmJmZDk0NDViNGM0NTFkNGM2YTUxYzQyMDhlZDRlM2RkOWZkZTMxZjY3MGMyOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.luluhypermarket.com/cdn-cgi/image/f=auto/medias/1129666-02.jpg-1200Wx1200H?context=bWFzdGVyfGltYWdlc3w4NjA3NHxpbWFnZS9qcGVnfGhkZS9oZGUvMTI1MzYxMzMzMjA3MzQvMTEyOTY2Ni0wMi5qcGdfMTIwMFd4MTIwMEh8NmQ1ZjU2YmRjYmE4MjdjYTAxODVhNGVmZWJkOTIyZjQxNmU1NzE5N2JlNjdjNDA4M2ZhNjY5YTUxNjA0YjNhYg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.luluhypermarket.com/en-qa/hoover-gator-cordless-handheld-vacuum-cleaner-hq86-gabm/p/1129666</t>
+    <t xml:space="preserve">Hoover Gator 10.8V Cordless Handheld Vacuum Cleaner, White, 1.6 Kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordless convenience for quick clean ups around the home
+Gator mouth technology also makes it easy to empty the device without leaving any mess
+Gator handheld comes with a built,in crevice tool for cleaning in hard to reach places</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51EJUuQk0iL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51a4hf-h1gL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/Hoover-Cordless-Handheld-Hq86-Ga-B-Me-manufacturer/dp/B07PFKL2QY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karcher 1100W 25L Vacuum Cleaner (MV5/WD5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No matter what type of surface may it be a rug, tiles, vinyl, wood and even rough surfaces you can make sure that the Karcher MV5 Premium will be able to clean and remove the dirt. It doesn't matter if the dirt is wet and dry, the Karcher MV5 Premium will be able to clean it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.xcite.com/media/catalog/product/cache/1/image/600x/9df78eab33525d08d6e5fb8d27136e95/131148/Karcher_Vacuum_Cleaner___1800_W.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.xcite.com/karcher-1100w-25l-vacuum-cleaner-mv5-wd5.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StarSat-85 Smart TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StarSat 85″ Full HD Android9.1 Smart LED TV, 1×2.4Ghz and 1×90 sensor Remote Control, Slim bezel design, 2xHDMI and 2xUSB Ports, WiFi, Smart Cast, PlayStore, AV and PC mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81q7Q5MRa6L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/StarSat-Android9-1-1x2-4Ghz-Control-PlayStore/dp/B08P91YWZK/ref=sr_1_37?dchild=1&amp;m=A1DJ80P012TNS7&amp;marketplaceID=A2VIGQ35RCS4UG&amp;qid=1607951824&amp;s=merchant-items&amp;sr=1-37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG 55” AU7100 UHD 4K HDR Smart TV (2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Entertainment Excellence With The AU7100 – A Smart, Ultra HD TV that delivers it all, the Samsung 55 Inch AU7100 smart tv blends stunning visuals, vibrant colour, crisp audio and striking slim fit design to enhance your living space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71UZSSW9h3L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51GMWAoEchL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/Samsung-inch-AU7100-UHD-Smart/dp/B08Y756PNJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 Apple 10.2-inch iPad (Wi-Fi, 64GB) - Space Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powerful. Easy to use. Versatile. The new iPad has a beautiful 10.2-inch Retina display, powerful A13 Bionic chip, an Ultra Wide front camera with Center Stage, and works with Apple Pencil and the Smart Keyboard. iPad lets you do more, more easily. All for an incredible value.
+Screen Size: 10.2 inches
+Screen Resolution: 2160 x 1620
+Processor Model: A13 Bionic chip with 64-bit architecture, Neural Engine
+Total Storage Capacity: 64 gigabytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61NGnpjoRDL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/2021-Apple-10-2-inch-iPad-Wi-Fi/dp/B09G9FPHY6?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung Galaxy Tab A8 10.5 inches Display, RAM 3 GB, ROM 32 GB Expandable, Wi-Fi+LTE Tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.69cm (10.5 inch) Vibrant Display 1920x1200 (WUXGA) TFT,” Aspect ratio 16:10. Symmetric Narrow Bezel
+Android 11.0, Quad speakers with Dolby Atmos Speakers .
+8MP AF + 5.0MP Camera, 7040 mAh Battery With 15W Fast Charging
+3 GB RAM, 32 GB Internal Memory (expandable to 1 TB); UniSOC T618 (Dual 2.0GHz + Hexa 2.0GHz)
+Display Type: Lcd; Processor Description: Octa-Coreunisoc T618dual 2.0ghz + Hexa 2.0ghz; Hardware Interface: Bluetooth 5; Graphics Description: Integrated; Wireless Communication Technology: Cellular; Cellular Technology: 4g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81PZUtXex5L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/91TsHQKuxTL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/Samsung-Galaxy-Display-Expandable-SM-X205NZAAINU/dp/B09P8NSW9G?th=1</t>
   </si>
 </sst>
 </file>
@@ -450,7 +461,7 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
@@ -550,7 +561,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -667,13 +678,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -696,96 +707,6 @@
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>60000</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>300000</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>150000</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>250000</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -806,11 +727,11 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -837,19 +758,19 @@
     </row>
     <row r="2" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>900000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -857,19 +778,19 @@
         <v>3404</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -894,7 +815,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -921,47 +842,47 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -980,13 +901,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1016,19 +937,19 @@
         <v>3394</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,16 +957,16 @@
         <v>3396</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,22 +974,22 @@
         <v>3384</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,38 +997,223 @@
         <v>3386</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>97</v>
       </c>
     </row>

--- a/sheets/electronics.xlsx
+++ b/sheets/electronics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="air-fryers" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -87,60 +87,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://i.ebayimg.com/images/g/Y1UAAOSwn1di9WQH/s-l1600.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osmoclean Lightening and Buffing Mask for Face - Institut Esthederm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Osmoclean lightening and buffing mask for face works by eliminating excess oiliness from the skin, while decreasing pores' size and thinning their surface.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.sweetcare.pt/img/prd/max/v-637323131951249883/institut-esthederm-008782hd_01.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sweetcare.com/institut-esthederm-osmoclean-lightening-buffing-mask-p-008782hd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CeraVe Hydrating Cleanser 473 ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clenses and hydrates without disrupting the protective skin barrier of the face and body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mon-pharmacien-conseil.com/17043-large_default/cerave-moisturizing-cream-wash-473-ml.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mon-pharmacien-conseil.com/en/face/4731-cerave-moisturizing-cream-wash-473-ml.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derma Daily Feminine Wash – 150ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fermented Filtrate and Plantago Asiatica Extract help reliefe itching Premium Feminine Wash Sensitive Skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://i.ebayimg.com/images/g/PwcAAOSwnq5jj7e~/s-l1600.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garnier Cleansingwater Micellar 400Ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/617HVWPFLML._AC_SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.sa/-/en/Garnier-3600541729711-Cleansingwater-Micellar-400Ml/dp/B07BXZSCRL?th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clean &amp; Clear Blackhead Clearing Cleanser – 200ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEAN &amp; CLEAR® Blackhead Clearing Cleanser is specially formulated to start fighting blackheads from Day 1! It helps reduce blackheads by removing oil, dirt, and dead skin cells trapped deep inside pores. The formula also contains a blackhead fighting ingredient, and when used daily, helps prevent blackheads from forming.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cleanandclear.co.uk/sites/cleanandclear_uk/files/styles/product_image/public/product-images/image11.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cleanandclear.co.uk/products/blackhead-clearing-cleanser</t>
   </si>
   <si>
     <t xml:space="preserve">NutriBullet Blender Combo 1000 Black (No Box)</t>
@@ -461,7 +407,7 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
@@ -555,13 +501,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -584,82 +530,6 @@
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>200000</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>200000</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>120000</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>150000</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -680,11 +550,11 @@
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -731,7 +601,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -758,19 +628,19 @@
     </row>
     <row r="2" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>900000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -778,19 +648,19 @@
         <v>3404</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +685,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -842,47 +712,47 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -907,7 +777,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -937,19 +807,19 @@
         <v>3394</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,16 +827,16 @@
         <v>3396</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -974,22 +844,22 @@
         <v>3384</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,56 +867,56 @@
         <v>3386</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1800000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1067,11 +937,11 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1098,19 +968,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>15000000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,19 +988,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1155,7 +1025,7 @@
       <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1182,39 +1052,39 @@
     </row>
     <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1700000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2000000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/electronics.xlsx
+++ b/sheets/electronics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="air-fryers" sheetId="1" state="visible" r:id="rId2"/>
@@ -407,7 +407,7 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
@@ -507,7 +507,7 @@
       <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -550,11 +550,11 @@
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -601,7 +601,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -682,10 +682,10 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -774,10 +774,10 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -883,6 +883,9 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3921</v>
+      </c>
       <c r="B6" s="0" t="s">
         <v>53</v>
       </c>
@@ -903,6 +906,9 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>3923</v>
+      </c>
       <c r="B7" s="0" t="s">
         <v>58</v>
       </c>
@@ -938,10 +944,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1021,11 +1027,11 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1050,7 +1056,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3926</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>71</v>
       </c>
@@ -1067,7 +1076,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3929</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>75</v>
       </c>

--- a/sheets/electronics.xlsx
+++ b/sheets/electronics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="air-fryers" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,8 @@
     <sheet name="vacuum-cleaners" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="televisions" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="tablets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="microphones" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="juicers" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -290,6 +292,41 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.in/Samsung-Galaxy-Display-Expandable-SM-X205NZAAINU/dp/B09P8NSW9G?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBL WIRELESS MICROPHONE SET PLUG &amp; PLAY SING ALONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The crystal clear clarity from the JBL wireless mics means no jamming, delay or distortion. Your voice will sound on point, with the backing of incredible Original JBL Pro Sound.
+There's no need to fly solo, unless you want to take center stage of course. Connect two wireless microphones together and hear both voices blended perfectly through the speaker for up to 6 hours of playtime.
+When you want to be heard, you want to be heard now. The JBL wireless mics have a super simple setup. Just turn on the receiver and wireless microphone and you're good to go instantly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn3.volusion.com/xzwdw.xzhmz/v/vspfiles/photos/6925281981425-2.jpg?v-cache=1674797466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn3.volusion.com/xzwdw.xzhmz/v/vspfiles/photos/6925281981425-4.jpg?v-cache=1674797466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.atoz.com.mt/JBL-Wireless-Microphone-Set-Plug-Play-Sing-Along-p/6925281981425.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Kuvings
+Color:	Silver
+Special Feature:	Manual
+Product Dimensions:	8.2"D x 9"W x 17.6"H
+Material:	Tritan
+Whole Slow Juicer: Kuvings patented, 60RPMs low-speed masticating technology will extract the maximum vitamins, minerals and enzymes. It crushes the food, then presses it to produce the highest yield-without aerating it.
+Time Saver: The 3” extra wide feed chute allows for larger ingredients without cutting, means less prep time. Drip-free juice spout helps create mixed juices and rinse between recipes. Funnel allows for smaller produce in juicer without spilling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71y2gisqOsL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61G-cLF6M0L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Kuvings-BPA-Free-Juicer-Sortbet-Cleaning/dp/B00I3Y2KMQ</t>
   </si>
 </sst>
 </file>
@@ -407,7 +444,7 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
@@ -489,6 +526,70 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -507,7 +608,7 @@
       <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -554,7 +655,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -601,7 +702,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -685,7 +786,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -777,7 +878,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -947,7 +1048,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1027,11 +1128,11 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1097,6 +1198,70 @@
       </c>
       <c r="G3" s="0" t="s">
         <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/electronics.xlsx
+++ b/sheets/electronics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="air-fryers" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="tablets" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="microphones" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="juicers" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="other" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="130">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -52,43 +53,116 @@
     <t xml:space="preserve">address</t>
   </si>
   <si>
-    <t xml:space="preserve">Nutricook Air Fryer 2, 1700 Watts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85% less fat. The air fryer 2 makes food with up-to 85% less fat than traditional deep frying while maintaining the same delicious fried flavor
-Smarttemp technology. Our breakthrough smarttemp technology automatically adjusts temperature to make everything super crispy on the outside and tender on the inside
-Shake reminder. The air fryer 2 comes with the helpful shake reminder, letting you know when to shake the contents for an even fry
-Cook-at-a-touch. Just hit one of our 10 one-touch presets for perfectly cooked food every. Single. Time
-A clear advantage. Our removable non-stick coated basket is pfoa-free, bpa-free and dishwasher-safe, too
-Included (1) 1700w air fryer (1) air fryer basket (1) air fryer basket drawer (1) user guide
-85% less fat. The air fryer 2 makes food with up-to 85% less fat than traditional deep frying while maintaining the same delicious fried flavor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/71jy3bd4NrL._AC_SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.ae/Nutricook-Programs-Function-Stainless-Warranty/dp/B08W8J6RW6?th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature Secrete with Pure Argan Oil Cream Tube, 100ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nature secrete carott serum for body whitening,lightening and anti-aging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://i.ebayimg.com/images/g/1E8AAOSwvIBgpSqe/s-l640.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature secréte carotte lait éclaircissant et hydratant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ladyedna.com/5926-thickbox_default/nature-secrete-carotte-lait-eclaircissant-rt-hydratant.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Clinic Pitch Madecassoside_Cica Serum 30ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://i.ebayimg.com/images/g/Y1UAAOSwn1di9WQH/s-l1600.jpg</t>
+    <t xml:space="preserve">Xiaomi Mi Smart Air Fryer | 3.5L | Pre-scheduling OLED Display – White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Dimensions
+    ‎33.5 x 30 x 25.2 cm; 3.9 Kilograms
+Capacity
+‎    3.5 Liters
+Power / Wattage
+‎    1500 watts
+Voltage
+    ‎240 Volts
+Item Weight
+    3.9 kg
+- Healthier cooking with less oil and low-fat
+- 360°hot air circulation for evenly cooked food
+- 100+ easy-to-cook recipes on Mi Home App, more recipes available by OTA
+- OLED display for easy monitoring, timing and temperature control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0644/7297/3529/products/6934177728662.2_500x.jpg?v=1662966502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0644/7297/3529/products/6934177728662.._500x.jpg?v=1662966502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://moreshopping.com/products/xiaomi-mi-smart-air-fryer-3-5l-pre-scheduling-oled-display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harman Kardon Citation 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Award-winning Citation sound and style meets portability and durability, with the Harman Kardon Citation 200.
+Citation made portable
+Featuring a built-in, rechargeable battery and tough, IPX4 rated construction, the Citation 200 makes the perfect Citation speaker – unplugged. Perfect for music in the garden or even indoor areas where there’s no power supply, such as a bathroom, the Citation 200 is a versatile speaker.
+Up to 8 hours battery life
+Fully charged, the Citation 200 is good for up to 8 hours playback – perfect for a day spent indoors or out. When the power finally runs out, simply place on its supplied cradle and listen as it charges. There’s also a handy USB-C charging socket on the back, for charging when you’re away from home.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://telefonika.com/wp-content/uploads/2021/04/Harman-Kardon-Citation-200.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.harmankardon.co.nz/dw/image/v2/AAUJ_PRD/on/demandware.static/-/Sites-masterCatalog_Harman/default/dw11df6326/HK-Citation%20200-Floating-HandleDown-Black.jpg?sw=626&amp;sh=626&amp;sm=fit&amp;sfrm=png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://telefonika.com/product/harman-kardon-citation-200/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harman Kardon Onyx Studio 8 Portable Stereo Bluetooth Speaker, Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Harman Kardon
+Model Number:	Onyx Studio 8
+Connectivity:	Bluetooth
+Color:	Blue
+Weight:	4.00 kg
+Rated output power:	50W RMS
+Power supply:	19V / 2A
+Frequency response:	50Hz – 20kHz (-6dB)
+Signal-to-noise ratio:	&gt; 80dB
+Battery type:	Li-ion polymer 11.70Wh (equivalent to 3.6V/ 3250mAh)
+Battery charge time:	5 hours
+Music play time:	up to 8 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.abanista.com/wp-content/uploads/2022/10/studio8.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBL JBLPARTYBOX100AM Partybox 100 High Power Portable Wireless Bluetooth Audio System with Battery – Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	JBL
+Model name:	Partybox 100
+Speaker type:	Portable Bluetooth Speakers
+Connectivity technology:	Bluetooth, USB
+Mounting type:	Floor Standing
+Colour:	Black
+Battery life:	14 Hours
+Included components:	Unit
+Product dimensions:	35.2D x 66.4W x 35.6H centimeters
+Audio output mode:	Mono
+JBL signature sound offers unprecedented performance and an authentic Audio experiences you will remember for your party
+The full panel lighting effect creates a captivating light show to astound your crowd with a lasting Visual experience.
+Wireless Bluetooth streaming
+Portable with rechargeable battery
+Mic and guitar inputs allow you to plug in your mic or guitar and take the stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/814B1MuPqxL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/814zpK6VPPL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.sa/-/en/JBL-JBLPARTYBOX100AM-Partybox-Portable-Bluetooth/dp/B07VHTF419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG Hw A450 2.1Ch Soundbar 2021, Black, Hw A450/Zn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Bass Boost: Get Maximum Immersion With The Bass Boost Mode. Enjoy Next Level, Deeper Bass, Surrounding You With A Fuller Range Of Sound.
+    Bluetooth Tv Connection: Enjoy The Convenience Of Going Wireless With A Bluetooth Connection.
+    Adaptive Sound Lite: Soundbar Automatically Analyses Your Sound Sources To Optimise The Audio Track For Your Specific Content. Experience Clear Sounds Optimised For Tv Viewing.
+    Subwoofer Included: Don'T Just Listen, Feel The Music. The Included Subwoofer Helps You To Enjoy Your Favourite Content With More Treble And Bass.
+    One Remote Control: Access Your World Of Settings With Just One Remote. Convenience At Your Fingertips.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.realsystemsug.com/images/com_hikashop/upload/a4501.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.realsystemsug.com/crazy-deals-shop-uganda/product/samsung-hw-a450-2-1ch-soundbar-2021-black-hw-a450-zn</t>
   </si>
   <si>
     <t xml:space="preserve">NutriBullet Blender Combo 1000 Black (No Box)</t>
@@ -309,6 +383,21 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.atoz.com.mt/JBL-Wireless-Microphone-Set-Plug-Play-Sing-Along-p/6925281981425.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wireless Karaoke Microphone Bluetooth Professional Dynamic Mic Portable Singing Machine for Bluetooth Phone/TV/Speaker Home KTV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Handheld Wireless Microphones with a portable mini home KTV for Music Playing and Singing at anytime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ae01.alicdn.com/kf/H613f6b85d25647c78217040e33c514bbU/Wireless-Karaoke-Microphone-Bluetooth-Professional-Dynamic-Mic-Portable-Singing-Machine-for-Bluetooth-Phone-TV-Speaker-Home.jpg_640x640.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aliexpress.com/item/1005002776708341.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuvings Whole Slow Juicer B6000S - Higher Nutrients and Vitamins, BPA-Free Components, Easy to Clean, Ultra Efficient 240W, 60RPMs, Includes Blank Strainer-Silver </t>
   </si>
   <si>
     <t xml:space="preserve">Brand:	Kuvings
@@ -327,6 +416,121 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/Kuvings-BPA-Free-Juicer-Sortbet-Cleaning/dp/B00I3Y2KMQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panasonic NI-JW650T Steam Iron – Turquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panasonic Steam iron Japan made1850WRound ride titanium coated360 Quick MultiDirectional Ironing up to 25 faster than conventional ironsAdjustable SteamSpray MistAnti drip200 ml water capacity
+Brand	Panasonic
+Colour	Turquoise
+Wattage	2200 watts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/410i-QZBrTL._AC_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41ChIYnO5PL._AC_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.eg/-/en/Panasonic-NI-JW650T-Steam-Iron-Turquoise/dp/B07MWHXX73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russell Hobbs My Iron Steam Iron, Ceramic Soleplate, 260 ml Water Tank, Self-Clean Function and Two Metre Power Cable, 1800 W, Blue and White, 25580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Russell Hobbs My Iron is the perfect appliance for efficiently tackling your laundry pile.
+Keep your clothes crease-free, from cotton and denim through to silk, the Russell Hobbs My Iron has enough power to get the job done
+Glide over your garments with ease using this light blue finished iron, whether it’s the last-minute shirt in the morning or the weekly pile of ironing, the My Iron has you covered for all your ironing needs.
+ - 1800 Watts
+ - Lightweight
+ - Self-clean function
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T2/images/I/61EwwsV4SEL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T2/images/I/61hyIn3p-oL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/Russell-Hobbs-Soleplate-Self-Clean-25580/dp/B07M8RYHXV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crownline fan heater – HT-242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description
+    - Multi-season device, this Fan Heater features 2 heat settings for cold evenings and a cool air function for warm days.
+    - Streamlined design, small and handy, easy to carry, so you can take it wherever you need warmth.
+    - Three adjustable functions: Ordinary wind / warm air 1700W/ hot blast 2000W, maximum power 2000W.
+    - Featuring a power indicator light and overheat protection, this heater also has a thermal cut out device for safety and peace of mind.
+    - This handy heater can quickly warm up any room and even has a cable length of 1.4m for added reach around the home.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crownline.ae/wp-content/uploads/2021/02/HT-242-MAIN-IMAGE-600x600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crownline.ae/wp-content/uploads/2021/02/crownline-fan-heater-dubai-uae-9-600x600.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crownline.ae/product/crownline-fan-heater-ht-242/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple AirPods (3rd generation) with MagSafe Charging Case (2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABOUT THIS ITEM:
+    Spatial audio with dynamic head tracking places sound all around you
+    Adaptive EQ automatically tunes music to your ears
+    All-new contoured design
+    Force sensor lets you easily control your entertainment, answer or end calls, and more
+    Sweat and water resistant
+    Up to 6 hours of listening time with one charge
+    Up to 30 hours of total listening time with the MagSafe Charging Case
+    Quick access to Siri by saying “Hey Siri”
+    Effortless setup, in-ear detection and automatic switching for a magical experience
+    Easily share audio between two sets of AirPods on your iPhone, iPad, iPod touch or Apple TV
+Brand: 	Apple
+Model name: 	AirPods
+Colour: 	White
+Form factor: 	In Ear
+Connectivity technology: 	Wireless
+Special feature: 	Sweat and water resistant
+Included components: 	Wireless Charging Case
+Age range (description): 	Adult
+Material: 	Plastic
+Headphone jack: 	Lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/615ekapl+pL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71KvWpCGw4L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/Apple-MME73ZM-A-AirPods-3rd-generation/dp/B09JQQDLXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple AirPods (2nd Generation) Wireless Earbuds with Lightning Charging Case Included. Over 24 Hours of Battery Life, Effortless Setup. Bluetooth Headphones…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> About This Item:
+    Quick access to Siri by saying “ Hey Siri ”.Note : If the size of the earbud tips does not match the size of your ear canals or the headset is not worn properly in your ears, you may not obtain the correct sound qualities or call performance. Change the earbud tips to ones that fit more snugly in your ear
+    More than 24 hours total listening time with the Charging Case
+    Effortless setup, in-ear detection, and automatic switching for a magical experience
+    Easily share audio between two sets of AirPods on your iPhone, iPad, iPod touch, or Apple TV
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/7120GgUKj3L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/71NLN1HgFkL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Apple-AirPods-Charging-Latest-Model/dp/B07PXGQC1Q</t>
   </si>
 </sst>
 </file>
@@ -438,13 +642,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
@@ -472,7 +676,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4471</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
@@ -480,49 +687,19 @@
         <v>8</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1000000</v>
+        <v>550000</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>170000</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.amazon.ae/Nutricook-Programs-Function-Stainless-Warranty/dp/B08W8J6RW6?th=1"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -540,11 +717,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -570,22 +747,228 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4501</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>100</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2500000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4504</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4507</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4510</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4513</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>950000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4516</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>750000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -602,13 +985,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -633,6 +1016,132 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4475</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4477</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4480</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4482</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -651,11 +1160,11 @@
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -698,11 +1207,11 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -728,20 +1237,23 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4484</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>900000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -749,19 +1261,19 @@
         <v>3404</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -782,11 +1294,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -812,48 +1324,57 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4486</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4488</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4490</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -874,11 +1395,11 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -908,19 +1429,19 @@
         <v>3394</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,16 +1449,16 @@
         <v>3396</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,22 +1466,22 @@
         <v>3384</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,19 +1489,19 @@
         <v>3386</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -988,22 +1509,22 @@
         <v>3921</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,19 +1532,19 @@
         <v>3923</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1800000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1044,11 +1565,11 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1074,40 +1595,43 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3499</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>15000000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>1</v>
+        <v>4493</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1128,11 +1652,11 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1162,19 +1686,19 @@
         <v>3926</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1700000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1182,22 +1706,22 @@
         <v>3929</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2000000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1740,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1247,21 +1771,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="24.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4496</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>84</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4498</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/electronics.xlsx
+++ b/sheets/electronics.xlsx
@@ -19,6 +19,8 @@
     <sheet name="microphones" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="juicers" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="other" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="extension-cables" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="lights" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="169">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -165,6 +167,28 @@
     <t xml:space="preserve">https://www.realsystemsug.com/crazy-deals-shop-uganda/product/samsung-hw-a450-2-1ch-soundbar-2021-black-hw-a450-zn</t>
   </si>
   <si>
+    <t xml:space="preserve">2BOOM Aqua Jam Portable Bluetooth Wireless Water Resistant Shower Speaker with Suction Cup Pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	2BOOM
+Connectivity technologies: 	Bluetooth, USB
+Special Feature: 	Waterproof
+Mounting Type: 	Freestanding,Plug Mount
+Controller Type: 	Battery Powered
+- 2BOOM(TM) BT290P Aqua Jam Bluetooth(R) Shower Speaker (Pink) Specifications: ? Allows call answering? Small
+- compact design? Suction cup mounting? Water-resistant? Showerproof? Includes instruction manual &amp; USB charging cable? Pink UPC : 724500658850 Shipping Dimensions : 6.70in X 6.10in X 2.50in Estimated Shipping Weight : 3.41
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81lFWJUeISL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71ftY1egp-L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/2BOOM-Portable-Bluetooth-Wireless-Resistant/dp/B01GW56PYQ</t>
+  </si>
+  <si>
     <t xml:space="preserve">NutriBullet Blender Combo 1000 Black (No Box)</t>
   </si>
   <si>
@@ -331,6 +355,53 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.co.uk/Samsung-inch-AU7100-UHD-Smart/dp/B08Y756PNJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XIAOMI Mi TV Box-S 4K, Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimensions
+        Length: 3.75 in
+        Width: 3.75 in
+        Thickness: 0.66 in
+        Weight: 5.19 ounce
+        Color: Black
+Specifications
+        Output Resolution: 4K (3840 x 2160)
+        CPU: Cortex-A53 Quad-core 64bit
+        GPU: Mali-450
+        RAM: 2GB DDR3
+        Storage: 8GB eMMC
+        Operating System: Android 8.1
+Wireless connectivity
+        Wi-Fi: 802.11a/b/g/n/ac 2.4GHz/5GHz
+        Bluetooth: 4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megatel.com.cy/2332-large_default/xiaomi-mi-tv-box-s-4k-black.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://megatel.com.cy/gadgets/318450706-xiaomi-mi-tv-box-s-4k-black-6941059602200.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roku Premiere Streaming Player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brilliant picture quality
+Experience your favourite shows with stunning detail and clarity. Whether you’re streaming in HD, 4K, or HDR, you’ll get picture quality that’s optimized for your TV with sharp resolution and vivid color.
+The simple way to start streaming
+It’s easy to get started—just plug it into your TV with the included Premium High Speed HDMI® Cable and connect to the internet. With a quick setup and an easy on-screen experience, you’ll be streaming in minutes.
+Simple remote
+Easy to use and thoughtfully crafted to fit in your hand, the simple remote features intuitive controls and channel shortcut buttons to quickly get you to your favorite entertainment.
+Endless entertainment
+Stream just about anything, including free TV, live news, sports, and more. Never miss the most talked-about events, award-winning shows, latest blockbuster hits, and more. It’s easy to stream what you love and cut back on cable bills with access to 150,000+ movies and TV episodes across thousands of free and paid channels.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ui.assets-asda.com/dm/asdagroceries/T_829610003573_T1?defaultImage=asdagroceries/noImage&amp;resMode=sharp2&amp;id=L3RSt2&amp;fmt=webp&amp;dpr=off&amp;fit=constrain,1&amp;wid=564&amp;hei=564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://groceries.asda.com/product/media-boxes-dvd-players/roku-premiere-streaming-player/1000188501943</t>
   </si>
   <si>
     <t xml:space="preserve">2021 Apple 10.2-inch iPad (Wi-Fi, 64GB) - Space Gray</t>
@@ -531,6 +602,109 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/Apple-AirPods-Charging-Latest-Model/dp/B07PXGQC1Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alarm Range Extender 2nd Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Range Extenders throughout your home to extend the signal from your Alarm Base Station to all its components, so you can make sure your entire system stays online.
+Dimensions:
+1.86 X 3.19 X 1.66 (in) * including plug in pin height
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/2393/8647/products/Range_Extender_PDP_2x_a39558fe-b169-4293-8ad1-4427acc737c3.jpg?v=1586437892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring Alarm Keypad (2nd Gen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Easily arms and disarms your Ring Alarm system
+- Choose from “home”, “away”, and “disarmed” security modes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41b3eHSm0fL._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51gK1xGHXGL._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Ring-Alarm-Keypad/dp/B07ZB2DFMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANLEY Power Extension Cable Reel 50m with 4 Sockets, Overload Protection and Cable Guide, ESMA Certified – SXECFL26HXE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Socket : 4
+    - Braking system
+    - Anti-twist system: the sockets do not turn with the cable drum when winding and unwinding
+    - Cable length: 50m
+    - Cable type: PVC 1.25mm
+    - Thermal protection
+    - Heavy duty grip
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71Q4QgJkbrL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71KWcho+LKL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/STANLEY-Extension-Overload-Protection-Certified/dp/B07MW7C4W1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brennenstuhl Garant 3-way socket outlet cable reel (50m cable length, ergonomic handle), cable colour: black </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garant Brennenstuhl cable reel with 50m extension cable impresses with quality and safety in all areas. Its robust reel body is made from special plastic on a galvanised steel tube frame. It's not just equipped with a thermal cut-out protection against overheating, but has the following properties too:
+    Ergonomic cable guide handle
+    Easy winding and rewinding
+    3-way socket outlet (240V)
+    Self-closing socket cover
+    Reel Ø 290mm
+    Nominal current: 13 A
+    Plug: BS 1363    
+    3-way socket cable reel drum with 50m cable length H05VV-F 3G1,5 and ergonomic cable guide handle
+    Small cable reel (240 V/13 A) with thermal cut-out protection against overheating and overloading, anti-dust and contamination self-closing socket cover
+    Cable drum with reel body made from special plastic on a galvanised steel tube frame
+    Ergonomic cable guide handle for easy winding and rewinding
+    Scope of delivery: 1x Garant cable reel in black cable colour (50m, 3-way socket outlet, reel Ø 290mm) - in best brennenstuhl® quality
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.brennenstuhl.co.uk/temp/thumbnails/4007123017591_1208063_A001_normal-8e7f2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anker Power Extend 6-IN-1 Power Strip -White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barcode : 194644025779
+4 AC Outlets 2 USB Ports Charge up to 1 Hour faster (fully Charge iPhone 11 in 2h 20 mins) 2m Cable LED indicator 260W AC outlets 12W for USB-A Ports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://icity.bh/images/thumbs/100013762.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://icity.bh/images/thumbs/100013765.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://icity.bh/Anker-Power-Extend-6-IN-1-Power-Strip--White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODI 220V LED ceiling light with fan adjustable 3 color change with remote control gold color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invisible fan light: The combination of classic and innovative technology, the new LED light source, life expectancy up to 60,000 hours. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51fyGbRuXVL._AC_SL1134_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61dr1SiQtPL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/MODI-ceiling-adjustable-change-control/dp/B07MMJQP1G</t>
   </si>
 </sst>
 </file>
@@ -648,7 +822,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
@@ -721,7 +895,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -751,22 +925,22 @@
         <v>4501</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2500000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -788,10 +962,10 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -821,22 +995,22 @@
         <v>4504</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -844,22 +1018,22 @@
         <v>4507</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -867,22 +1041,22 @@
         <v>4510</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -890,22 +1064,22 @@
         <v>4513</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>950000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -913,26 +1087,55 @@
         <v>4516</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>750000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -980,6 +1183,180 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5049</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5051</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5054</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>240000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -988,10 +1365,10 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1093,7 +1470,26 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="7" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1164,7 +1560,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1211,7 +1607,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1241,19 +1637,19 @@
         <v>4484</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>900000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1261,19 +1657,19 @@
         <v>3404</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1694,7 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1328,19 +1724,19 @@
         <v>4486</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,19 +1744,19 @@
         <v>4488</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,13 +1764,13 @@
         <v>4490</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1795,7 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1429,19 +1825,19 @@
         <v>3394</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,16 +1845,16 @@
         <v>3396</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,22 +1862,22 @@
         <v>3384</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1489,19 +1885,19 @@
         <v>3386</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1509,22 +1905,22 @@
         <v>3921</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,19 +1928,19 @@
         <v>3923</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1800000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1563,13 +1959,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1599,19 +1995,19 @@
         <v>3499</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>15000000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,19 +2015,59 @@
         <v>4493</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5045</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5046</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1653,10 +2089,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1686,19 +2122,19 @@
         <v>3926</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1700000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1706,22 +2142,22 @@
         <v>3929</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2000000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +2182,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1776,19 +2212,19 @@
         <v>4496</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,19 +2232,19 @@
         <v>4498</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/electronics.xlsx
+++ b/sheets/electronics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="air-fryers" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="186">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -187,6 +187,80 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/2BOOM-Portable-Bluetooth-Wireless-Resistant/dp/B01GW56PYQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nokia 6300 4G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Nokia
+Model Name: 	6300 4G
+Wireless Carrier: 	Unlocked
+Operating System: 	KaiOS
+Cellular Technology: 	4G
+Memory Storage Capacity: 	4 GB
+Connectivity Technology: 	Bluetooth, Wi-Fi, USB
+Color: 	Light Charcoal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61u374-jlJL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/616ez4yAEzL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Nokia-Unlocked-Hotspot-Assistant-Charcoal/dp/B08SV2Y7J6?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple iPhone 12 Pro Max, 256GB, Pacific Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Apple
+Cellular Technology: 	5G
+Memory Storage Capacity: 	256 GB
+Color: 	Pacific Blue
+Screen Size: 	6.7 Inches
+Formfactor: 	Slate
+Battery Capacity: 	10 Amp Hours
+Year: 	2019
+Biometric Security Feature: 	Fingerprint Recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71FuI8YvCNL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Apple-iPhone-256GB-Pacific-Blue/dp/B08PMKQP79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG Galaxy S22 Ultra Cell Phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	SAMSUNG
+Model Name: 	S22 Ultra
+Operating System: 	Android 12.0
+Cellular Technology: 	LTE, GSM, WCDMA, CDMA, HSPA, EV-DO
+Memory Storage Capacity: 	128 GB
+Connectivity Technology: 	Bluetooth, Wi-Fi, USB, NFC
+Color: 	Phantom Black
+Screen Size 	6.8 Inches
+Wireless network technology 	GSM, CDMA, LTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61U6oC65TTL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/614itpWQNsL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/SAMSUNG-Smartphone-Unlocked-Brightest-Processor/dp/B09MVZSW5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple iPhone 12 Pro Max, 256GB, Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/31DXs7b1j2L._AC_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Apple-iPhone-12-Pro-Max/dp/B09JF3TGRV/ref=pd_day0fbt_vft_med_img_sccl_1/142-7992727-3797158?pd_rd_w=DjTAc&amp;content-id=amzn1.sym.bea02ed0-a54b-499f-9a00-48089e5cd317&amp;pf_rd_p=bea02ed0-a54b-499f-9a00-48089e5cd317&amp;pf_rd_r=SES0D3Z0P6QZGEFVKT59&amp;pd_rd_wg=D6Wx6&amp;pd_rd_r=e57afcdd-70e4-41f1-8121-18203548b7ca&amp;pd_rd_i=B09JF3TGRV&amp;psc=1</t>
   </si>
   <si>
     <t xml:space="preserve">NutriBullet Blender Combo 1000 Black (No Box)</t>
@@ -822,7 +896,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
@@ -895,7 +969,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -925,22 +999,22 @@
         <v>4501</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2500000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -961,11 +1035,11 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -995,22 +1069,22 @@
         <v>4504</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1018,22 +1092,22 @@
         <v>4507</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1041,22 +1115,22 @@
         <v>4510</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1064,22 +1138,22 @@
         <v>4513</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>950000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1087,53 +1161,59 @@
         <v>4516</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>750000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5203</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5206</v>
+      </c>
       <c r="B8" s="0" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1194,7 +1274,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1224,22 +1304,22 @@
         <v>5049</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1000000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1247,13 +1327,13 @@
         <v>5051</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1261,22 +1341,22 @@
         <v>5054</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>240000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1297,11 +1377,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1327,23 +1407,26 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5209</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1365,10 +1448,10 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1471,6 +1554,9 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5191</v>
+      </c>
       <c r="B6" s="0" t="s">
         <v>29</v>
       </c>
@@ -1554,13 +1640,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1583,6 +1669,89 @@
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="25.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5196</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>5700000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5199</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>5620000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5201</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5700000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1776,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1637,19 +1806,19 @@
         <v>4484</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>900000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1657,19 +1826,19 @@
         <v>3404</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +1863,7 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1724,19 +1893,19 @@
         <v>4486</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1744,19 +1913,19 @@
         <v>4488</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,13 +1933,13 @@
         <v>4490</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +1964,7 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1825,19 +1994,19 @@
         <v>3394</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,16 +2014,16 @@
         <v>3396</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,22 +2031,22 @@
         <v>3384</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,19 +2054,19 @@
         <v>3386</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1905,22 +2074,22 @@
         <v>3921</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1928,19 +2097,19 @@
         <v>3923</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1800000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1965,7 +2134,7 @@
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1995,19 +2164,19 @@
         <v>3499</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>15000000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2015,19 +2184,19 @@
         <v>4493</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2035,19 +2204,19 @@
         <v>5045</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2055,19 +2224,19 @@
         <v>5046</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>500000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2261,7 @@
       <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2122,19 +2291,19 @@
         <v>3926</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1700000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2142,22 +2311,22 @@
         <v>3929</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2000000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2182,7 +2351,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2212,19 +2381,19 @@
         <v>4496</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,19 +2401,19 @@
         <v>4498</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/electronics.xlsx
+++ b/sheets/electronics.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="196">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -706,6 +706,21 @@
     <t xml:space="preserve">https://www.amazon.com/Ring-Alarm-Keypad/dp/B07ZB2DFMB</t>
   </si>
   <si>
+    <t xml:space="preserve">Ring Chime Pro - Wi-Fi® extender and indoor chime for Ring devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installing a Ring Video Doorbell or Security Cam? The Ring Chime Pro acts as a bridge between your router and your Ring devices, extending the Wi-Fi range and increasing the signal to the rest of your Ring system. It also amplifies alert sounds so you know when someone trips a motion sensor or presses the button on your Ring Doorbell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images.crutchfieldonline.com/ImageHandler/trim/3000/1950/products/2018/16/169/g1698AC1P6-F.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images.crutchfieldonline.com/ImageHandler/trim/3000/1950/products/2018/16/169/g1698AC1P6-o_other0.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crutchfield.com/S-YGHlUxabudD/p_1698AC1P6/Ring-Chime-Pro.html#&amp;gid=1&amp;pid=2</t>
+  </si>
+  <si>
     <t xml:space="preserve">STANLEY Power Extension Cable Reel 50m with 4 Sockets, Overload Protection and Cable Guide, ESMA Certified – SXECFL26HXE</t>
   </si>
   <si>
@@ -779,6 +794,30 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.ae/MODI-ceiling-adjustable-change-control/dp/B07MMJQP1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LED Bulb Toledo E27 11W shape A60 frosted of the brand Sylvania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- LED multidirectional lamp socket E27 which replaces the incandescent lamps of 75W
+up to 90% of energy saving compared to incandescent lamps
+shape A60 with frosted-finish
+- Luminous flux : up to 1055lm
+- Luminous efficiency : up to 95lm/W
+- Excellent diffusion of the light at 200°
+- Immediate ignition at 100% of the flow
+- Good color rendering
+- Suits to general lighting restaurants, cafes, hotels and residential house
+- Average lifetime of 15.000 hours - 50,000 on/off cycles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ampoules-service.com/Files/102719/Img/04/AS0547_2-zoom.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ampoules-service.com/Files/102719/Img/16/AS0547_3-zoom.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ampoules-service.com/ampoule-led-toledo-e27-115w-1055lm-a67-sylvania-c2x27057473</t>
   </si>
 </sst>
 </file>
@@ -892,11 +931,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
   </cols>
@@ -965,11 +1004,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1035,11 +1074,11 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1216,7 +1255,26 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>5392</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
     <row r="10" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1270,11 +1328,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1304,22 +1362,22 @@
         <v>5049</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1000000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1327,13 +1385,13 @@
         <v>5051</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,22 +1399,22 @@
         <v>5054</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>240000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1375,13 +1433,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1411,22 +1469,45 @@
         <v>5209</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5393</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1447,11 +1528,11 @@
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1642,11 +1723,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1772,11 +1853,11 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1859,11 +1940,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1960,11 +2041,11 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2130,11 +2211,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2257,11 +2338,11 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2347,11 +2428,11 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
